--- a/example/cuts.xlsx
+++ b/example/cuts.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diasp\Desktop\player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diasp\Documents\GitHub\AZPlayer\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DE88A-B75D-4904-B603-FCC2E10B6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA73564-095B-4515-A376-22167EB2C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F4FCB8E-87CD-42B1-84D3-51FC56C7844F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F4FCB8E-87CD-42B1-84D3-51FC56C7844F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="258">
   <si>
     <t>cut</t>
   </si>
@@ -401,197 +404,419 @@
     <t>Rays Trash 05</t>
   </si>
   <si>
-    <t>./audio/100001.wav</t>
-  </si>
-  <si>
-    <t>./audio/100002.wav</t>
-  </si>
-  <si>
-    <t>./audio/100003.wav</t>
-  </si>
-  <si>
-    <t>./audio/100004.wav</t>
-  </si>
-  <si>
-    <t>./audio/100005.wav</t>
-  </si>
-  <si>
-    <t>./audio/100006.wav</t>
-  </si>
-  <si>
-    <t>./audio/100007.wav</t>
-  </si>
-  <si>
-    <t>./audio/100008.wav</t>
-  </si>
-  <si>
-    <t>./audio/100009.wav</t>
-  </si>
-  <si>
-    <t>./audio/100010.wav</t>
-  </si>
-  <si>
-    <t>./audio/100011.wav</t>
-  </si>
-  <si>
-    <t>./audio/100012.wav</t>
-  </si>
-  <si>
-    <t>./audio/100013.wav</t>
-  </si>
-  <si>
-    <t>./audio/100014.wav</t>
-  </si>
-  <si>
-    <t>./audio/100015.wav</t>
-  </si>
-  <si>
-    <t>./audio/100016.wav</t>
-  </si>
-  <si>
-    <t>./audio/100017.wav</t>
-  </si>
-  <si>
-    <t>./audio/100018.wav</t>
-  </si>
-  <si>
-    <t>./audio/100019.wav</t>
-  </si>
-  <si>
-    <t>./audio/100020.wav</t>
-  </si>
-  <si>
-    <t>./audio/100021.wav</t>
-  </si>
-  <si>
-    <t>./audio/100022.wav</t>
-  </si>
-  <si>
-    <t>./audio/100023.wav</t>
-  </si>
-  <si>
-    <t>./audio/100024.wav</t>
-  </si>
-  <si>
-    <t>./audio/100025.wav</t>
-  </si>
-  <si>
-    <t>./audio/100026.wav</t>
-  </si>
-  <si>
-    <t>./audio/100027.wav</t>
-  </si>
-  <si>
-    <t>./audio/100028.wav</t>
-  </si>
-  <si>
-    <t>./audio/100029.wav</t>
-  </si>
-  <si>
-    <t>./audio/100030.wav</t>
-  </si>
-  <si>
-    <t>./audio/100031.wav</t>
-  </si>
-  <si>
-    <t>./audio/100032.wav</t>
-  </si>
-  <si>
-    <t>./audio/100033.wav</t>
-  </si>
-  <si>
-    <t>./audio/100034.wav</t>
-  </si>
-  <si>
-    <t>./audio/100035.wav</t>
-  </si>
-  <si>
-    <t>./audio/100036.wav</t>
-  </si>
-  <si>
-    <t>./audio/100037.wav</t>
-  </si>
-  <si>
-    <t>./audio/700001.wav</t>
-  </si>
-  <si>
-    <t>./audio/700002.wav</t>
-  </si>
-  <si>
-    <t>./audio/700003.wav</t>
-  </si>
-  <si>
-    <t>./audio/700004.wav</t>
-  </si>
-  <si>
-    <t>./audio/700005.wav</t>
-  </si>
-  <si>
-    <t>./audio/700006.wav</t>
-  </si>
-  <si>
-    <t>./audio/700011.wav</t>
-  </si>
-  <si>
-    <t>./audio/700012.wav</t>
-  </si>
-  <si>
-    <t>./audio/700013.wav</t>
-  </si>
-  <si>
-    <t>./audio/700014.wav</t>
-  </si>
-  <si>
-    <t>./audio/700015.wav</t>
-  </si>
-  <si>
-    <t>./audio/700016.wav</t>
-  </si>
-  <si>
-    <t>./audio/700017.wav</t>
-  </si>
-  <si>
-    <t>./audio/700018.wav</t>
-  </si>
-  <si>
-    <t>./audio/700019.wav</t>
-  </si>
-  <si>
-    <t>./audio/700020.wav</t>
-  </si>
-  <si>
-    <t>./audio/800001.wav</t>
-  </si>
-  <si>
-    <t>./audio/800002.wav</t>
-  </si>
-  <si>
-    <t>./audio/800003.wav</t>
-  </si>
-  <si>
-    <t>./audio/900001.wav</t>
-  </si>
-  <si>
-    <t>./audio/900002.wav</t>
-  </si>
-  <si>
-    <t>./audio/900003.wav</t>
-  </si>
-  <si>
-    <t>./audio/900004.wav</t>
-  </si>
-  <si>
-    <t>./audio/900005.wav</t>
-  </si>
-  <si>
-    <t>./audio/900101.wav</t>
+    <t>Macarena</t>
+  </si>
+  <si>
+    <t>Call Me Maybe</t>
+  </si>
+  <si>
+    <t>Who Let The Dogs Out</t>
+  </si>
+  <si>
+    <t>Don't Worry, Be Happy</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Wannabe</t>
+  </si>
+  <si>
+    <t>We Built This City</t>
+  </si>
+  <si>
+    <t>Love Shack</t>
+  </si>
+  <si>
+    <t>Footloose</t>
+  </si>
+  <si>
+    <t>The B-52's</t>
+  </si>
+  <si>
+    <t>Kenny Loggins</t>
+  </si>
+  <si>
+    <t>Centerfold</t>
+  </si>
+  <si>
+    <t>The J. Gelis Band</t>
+  </si>
+  <si>
+    <t>Walking On Sunshine</t>
+  </si>
+  <si>
+    <t>Katrina &amp; The Waves</t>
+  </si>
+  <si>
+    <t>I Believe in a Thing Called Love</t>
+  </si>
+  <si>
+    <t>The Darkness</t>
+  </si>
+  <si>
+    <t>Sweet Caroline</t>
+  </si>
+  <si>
+    <t>Neil Diamond</t>
+  </si>
+  <si>
+    <t>My Sharona</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>Danger Zone</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Earth, Wind &amp; Fire</t>
+  </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>Santana ft. Rob Thomas</t>
+  </si>
+  <si>
+    <t>Starship</t>
+  </si>
+  <si>
+    <t>We Didn't Start the Fire</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Don't Go Breaking My Heart</t>
+  </si>
+  <si>
+    <t>Elton John, Kiki Dee</t>
+  </si>
+  <si>
+    <t>Two Princes</t>
+  </si>
+  <si>
+    <t>Spin Doctors</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>You Can Call Me Al</t>
+  </si>
+  <si>
+    <t>Paul Simon</t>
+  </si>
+  <si>
+    <t>Dancing Queen</t>
+  </si>
+  <si>
+    <t>Abba</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>Rupert Holmes</t>
+  </si>
+  <si>
+    <t>I'm Still Standing</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>9 to 5</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Come On Eileen</t>
+  </si>
+  <si>
+    <t>Dexys Midnight Runners</t>
+  </si>
+  <si>
+    <t>Breakfast At Tiffany's</t>
+  </si>
+  <si>
+    <t>Deep Blue Something</t>
+  </si>
+  <si>
+    <t>Moves Like Jagger</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Stacy's Mom</t>
+  </si>
+  <si>
+    <t>Fountains of Wayne</t>
+  </si>
+  <si>
+    <t>Hey Ya!</t>
+  </si>
+  <si>
+    <t>Outkast</t>
+  </si>
+  <si>
+    <t>Wake Me Up Before You Go-Go</t>
+  </si>
+  <si>
+    <t>Wham!</t>
+  </si>
+  <si>
+    <t>Man! I Feel Like A Woman!</t>
+  </si>
+  <si>
+    <t>Shania Twain</t>
+  </si>
+  <si>
+    <t>She's So High</t>
+  </si>
+  <si>
+    <t>Tal Bachman</t>
+  </si>
+  <si>
+    <t>I'm A Believer</t>
+  </si>
+  <si>
+    <t>Good Vibrations</t>
+  </si>
+  <si>
+    <t>Marky Mark and the Funky Bunch</t>
+  </si>
+  <si>
+    <t>Give It Up</t>
+  </si>
+  <si>
+    <t>KC &amp; The Sunshine Band</t>
+  </si>
+  <si>
+    <t>Kung Fu Fighting</t>
+  </si>
+  <si>
+    <t>Carl Douglas</t>
+  </si>
+  <si>
+    <t>Get The Party Started</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>That Don't Impress Me Much</t>
+  </si>
+  <si>
+    <t>Our House</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Party In The U.S.A.</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Take Me Home, Country Roads</t>
+  </si>
+  <si>
+    <t>John Denver</t>
+  </si>
+  <si>
+    <t>Islands in the Stream</t>
+  </si>
+  <si>
+    <t>Video Killed The Radio Star</t>
+  </si>
+  <si>
+    <t>The Buggles</t>
+  </si>
+  <si>
+    <t>Kiss from a Rose</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>The Safety Dance</t>
+  </si>
+  <si>
+    <t>Men Without Hats</t>
+  </si>
+  <si>
+    <t>I Will Survive</t>
+  </si>
+  <si>
+    <t>Gloria Gaynor</t>
+  </si>
+  <si>
+    <t>Y.M.C.A.</t>
+  </si>
+  <si>
+    <t>Village People</t>
+  </si>
+  <si>
+    <t>All The Small Things</t>
+  </si>
+  <si>
+    <t>Blink 182</t>
+  </si>
+  <si>
+    <t>Maneater</t>
+  </si>
+  <si>
+    <t>Daryl Hall &amp; John Oates</t>
+  </si>
+  <si>
+    <t>I Touch Myself</t>
+  </si>
+  <si>
+    <t>Divinyls</t>
+  </si>
+  <si>
+    <t>Girls Just Want To Have Fun</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Bye Bye Bye</t>
+  </si>
+  <si>
+    <t>NSync</t>
+  </si>
+  <si>
+    <t>Bitch</t>
+  </si>
+  <si>
+    <t>Meredith Brooks</t>
+  </si>
+  <si>
+    <t>I Want It That Way</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>In The Air Tonight</t>
+  </si>
+  <si>
+    <t>Phil Collins</t>
+  </si>
+  <si>
+    <t>Gimme! Gimme! Gimme!</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Pitbull, Kesha</t>
+  </si>
+  <si>
+    <t>Spice Girls</t>
+  </si>
+  <si>
+    <t>U Can't Touch This</t>
+  </si>
+  <si>
+    <t>MC Hammer</t>
+  </si>
+  <si>
+    <t>Whip It</t>
+  </si>
+  <si>
+    <t>DEVO</t>
+  </si>
+  <si>
+    <t>Livin' la Vida Loca</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>Cotton Eye Joe</t>
+  </si>
+  <si>
+    <t>Rednex</t>
+  </si>
+  <si>
+    <t>The Sign</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>What Makes You Beautiful</t>
+  </si>
+  <si>
+    <t>One Direction</t>
+  </si>
+  <si>
+    <t>I Don't Want To Miss A Thing</t>
+  </si>
+  <si>
+    <t>Aerosmith</t>
+  </si>
+  <si>
+    <t>It's Raining Men</t>
+  </si>
+  <si>
+    <t>The Weather Girls</t>
+  </si>
+  <si>
+    <t>Los Del Rio</t>
+  </si>
+  <si>
+    <t>Carly Rae Jepsen</t>
+  </si>
+  <si>
+    <t>Baha Men</t>
+  </si>
+  <si>
+    <t>Hampton &amp; The Hampsters</t>
+  </si>
+  <si>
+    <t>The Hampster Dance</t>
+  </si>
+  <si>
+    <t>Toni Basil</t>
+  </si>
+  <si>
+    <t>Rebecca Black</t>
+  </si>
+  <si>
+    <t>Bobby McFerrin</t>
+  </si>
+  <si>
+    <t>TiK ToK</t>
+  </si>
+  <si>
+    <t>Kesha</t>
+  </si>
+  <si>
+    <t>Generic Sweep 06</t>
+  </si>
+  <si>
+    <t>Danger Zone Sweep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,13 +836,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -632,12 +869,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,11 +1154,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Cascadia Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,10 +1180,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09DC58E4-2BF8-4F11-BC36-138D9D5E9CC0}" name="Table1" displayName="Table1" ref="A1:M63" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M63" xr:uid="{09DC58E4-2BF8-4F11-BC36-138D9D5E9CC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M62">
-    <sortCondition ref="A1:A62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09DC58E4-2BF8-4F11-BC36-138D9D5E9CC0}" name="Table1" displayName="Table1" ref="A1:M134" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M134" xr:uid="{09DC58E4-2BF8-4F11-BC36-138D9D5E9CC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M131">
+    <sortCondition ref="A1:A131"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{24C35F0F-70FB-4A82-8989-D5CCF9C2B3A6}" name="cut" dataDxfId="12"/>
@@ -953,9 +1198,11 @@
     <tableColumn id="9" xr3:uid="{F4C21CEA-B884-4895-96F0-FB47AA9AC1E1}" name="segue_s" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{07E5003F-4339-48A0-A7B5-1BDD13CBCDC7}" name="segue_e" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{40871509-68D0-4D3E-9D8B-659A270D5CEA}" name="topplay" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{73A10A20-5B9C-410B-B36E-CAE0AF778D62}" name="file" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{73A10A20-5B9C-410B-B36E-CAE0AF778D62}" name="file" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1256,60 +1503,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA2AF74-168E-4BBA-9DAF-C9433C754E5E}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="45.7109375" style="1" customWidth="1"/>
     <col min="6" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1350,8 +1597,9 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>122</v>
+      <c r="M2" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100001.wav</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1391,8 +1639,9 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>123</v>
+      <c r="M3" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100002.wav</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1432,8 +1681,9 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>124</v>
+      <c r="M4" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100003.wav</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1473,8 +1723,9 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>125</v>
+      <c r="M5" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100004.wav</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1514,8 +1765,9 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>126</v>
+      <c r="M6" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100005.wav</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1555,8 +1807,9 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>127</v>
+      <c r="M7" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100006.wav</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1596,8 +1849,9 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>128</v>
+      <c r="M8" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100007.wav</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1637,8 +1891,9 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>129</v>
+      <c r="M9" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100008.wav</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1678,8 +1933,9 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>130</v>
+      <c r="M10" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100009.wav</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1719,8 +1975,9 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>131</v>
+      <c r="M11" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100010.wav</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1760,8 +2017,9 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>132</v>
+      <c r="M12" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100011.wav</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1801,8 +2059,9 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>133</v>
+      <c r="M13" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100012.wav</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1842,8 +2101,9 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>134</v>
+      <c r="M14" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100013.wav</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1883,8 +2143,9 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>135</v>
+      <c r="M15" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100014.wav</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1924,8 +2185,9 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>136</v>
+      <c r="M16" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100015.wav</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1965,8 +2227,9 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>137</v>
+      <c r="M17" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100016.wav</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2006,8 +2269,9 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>138</v>
+      <c r="M18" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100017.wav</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2047,8 +2311,9 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>139</v>
+      <c r="M19" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100018.wav</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2088,8 +2353,9 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>140</v>
+      <c r="M20" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100019.wav</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2129,8 +2395,9 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>141</v>
+      <c r="M21" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100020.wav</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2170,8 +2437,9 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>142</v>
+      <c r="M22" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100021.wav</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2211,8 +2479,9 @@
       <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>143</v>
+      <c r="M23" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100022.wav</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2252,8 +2521,9 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>144</v>
+      <c r="M24" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100023.wav</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2293,8 +2563,9 @@
       <c r="L25" s="2">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>145</v>
+      <c r="M25" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100024.wav</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2334,8 +2605,9 @@
       <c r="L26" s="2">
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>146</v>
+      <c r="M26" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100025.wav</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2375,8 +2647,9 @@
       <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>147</v>
+      <c r="M27" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100026.wav</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2416,8 +2689,9 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>148</v>
+      <c r="M28" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100027.wav</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2457,8 +2731,9 @@
       <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>149</v>
+      <c r="M29" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100028.wav</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2498,8 +2773,9 @@
       <c r="L30" s="2">
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>150</v>
+      <c r="M30" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100029.wav</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2539,8 +2815,9 @@
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>151</v>
+      <c r="M31" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100030.wav</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2580,8 +2857,9 @@
       <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>152</v>
+      <c r="M32" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100031.wav</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2621,8 +2899,9 @@
       <c r="L33" s="2">
         <v>0</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>153</v>
+      <c r="M33" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100032.wav</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2662,8 +2941,9 @@
       <c r="L34" s="2">
         <v>0</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>154</v>
+      <c r="M34" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100033.wav</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2703,8 +2983,9 @@
       <c r="L35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>155</v>
+      <c r="M35" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100034.wav</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2744,8 +3025,9 @@
       <c r="L36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>156</v>
+      <c r="M36" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100035.wav</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2785,8 +3067,9 @@
       <c r="L37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>157</v>
+      <c r="M37" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100036.wav</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2826,1033 +3109,4041 @@
       <c r="L38" s="2">
         <v>0</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>158</v>
+      <c r="M38" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100037.wav</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>700001</v>
+        <v>100038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>32511</v>
+        <v>221563</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>494</v>
+        <v>9044</v>
       </c>
       <c r="J39" s="2">
-        <v>29358</v>
+        <v>220909</v>
       </c>
       <c r="K39" s="2">
-        <v>32511</v>
+        <v>221563</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>159</v>
+      <c r="M39" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100038.wav</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>700002</v>
+        <v>100039</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>32511</v>
+        <v>190425</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>494</v>
+        <v>4035</v>
       </c>
       <c r="J40" s="2">
-        <v>29358</v>
+        <v>183983</v>
       </c>
       <c r="K40" s="2">
-        <v>32511</v>
+        <v>190425</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>160</v>
+      <c r="M40" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100039.wav</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>700003</v>
+        <v>100040</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>32511</v>
+        <v>194550</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>494</v>
+        <v>54</v>
       </c>
       <c r="J41" s="2">
-        <v>29358</v>
+        <v>191026</v>
       </c>
       <c r="K41" s="2">
-        <v>32511</v>
+        <v>194550</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>161</v>
+      <c r="M41" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100040.wav</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>700004</v>
+        <v>100041</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>32511</v>
+        <v>229129</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>494</v>
+        <v>28677</v>
       </c>
       <c r="J42" s="2">
-        <v>29358</v>
+        <v>225613</v>
       </c>
       <c r="K42" s="2">
-        <v>32511</v>
+        <v>229129</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>162</v>
+      <c r="M42" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100041.wav</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>700005</v>
+        <v>100042</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>32511</v>
+        <v>210407</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>494</v>
+        <v>8486</v>
       </c>
       <c r="J43" s="2">
-        <v>29358</v>
+        <v>207843</v>
       </c>
       <c r="K43" s="2">
-        <v>32511</v>
+        <v>210407</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>163</v>
+      <c r="M43" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100042.wav</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>700006</v>
+        <v>100043</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>33081</v>
+        <v>239069</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>494</v>
+        <v>6512</v>
       </c>
       <c r="J44" s="2">
-        <v>29951</v>
+        <v>233820</v>
       </c>
       <c r="K44" s="2">
-        <v>33081</v>
+        <v>239069</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>164</v>
+      <c r="M44" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100043.wav</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>700011</v>
+        <v>100044</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
       </c>
       <c r="G45" s="2">
-        <v>33109</v>
+        <v>166603</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="J45" s="2">
-        <v>33012</v>
+        <v>163633</v>
       </c>
       <c r="K45" s="2">
-        <v>33019</v>
+        <v>166603</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>165</v>
+      <c r="M45" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100044.wav</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>700012</v>
+        <v>100045</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>30486</v>
+        <v>222224</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>200</v>
+        <v>17145</v>
       </c>
       <c r="J46" s="2">
-        <v>29650</v>
+        <v>221159</v>
       </c>
       <c r="K46" s="2">
-        <v>30486</v>
+        <v>222224</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>166</v>
+      <c r="M46" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100045.wav</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>700013</v>
+        <v>100046</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>23547</v>
+        <v>319770</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>45</v>
+        <v>7428</v>
       </c>
       <c r="J47" s="2">
-        <v>23205</v>
+        <v>313256</v>
       </c>
       <c r="K47" s="2">
-        <v>23547</v>
+        <v>319770</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>167</v>
+      <c r="M47" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100046.wav</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>700014</v>
+        <v>100047</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>30934</v>
+        <v>225282</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>4</v>
+        <v>11075</v>
       </c>
       <c r="J48" s="2">
-        <v>30511</v>
+        <v>223085</v>
       </c>
       <c r="K48" s="2">
-        <v>30934</v>
+        <v>225282</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>168</v>
+      <c r="M48" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100047.wav</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>700015</v>
+        <v>100048</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>28433</v>
+        <v>215001</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>35</v>
+        <v>8455</v>
       </c>
       <c r="J49" s="2">
-        <v>28189</v>
+        <v>209082</v>
       </c>
       <c r="K49" s="2">
-        <v>28433</v>
+        <v>215001</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>169</v>
+      <c r="M49" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100048.wav</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>700016</v>
+        <v>100049</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>30017</v>
+        <v>230734</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>44</v>
+        <v>8813</v>
       </c>
       <c r="J50" s="2">
-        <v>29835</v>
+        <v>225995</v>
       </c>
       <c r="K50" s="2">
-        <v>30017</v>
+        <v>230734</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>170</v>
+      <c r="M50" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100049.wav</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>700017</v>
+        <v>100050</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>29937</v>
+        <v>214369</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>1285</v>
+        <v>6879</v>
       </c>
       <c r="J51" s="2">
-        <v>29805</v>
+        <v>211486</v>
       </c>
       <c r="K51" s="2">
-        <v>29937</v>
+        <v>214369</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>171</v>
+      <c r="M51" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100050.wav</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>700018</v>
+        <v>100051</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>30022</v>
+        <v>207933</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>554</v>
+        <v>13628</v>
       </c>
       <c r="J52" s="2">
-        <v>29805</v>
+        <v>206312</v>
       </c>
       <c r="K52" s="2">
-        <v>30022</v>
+        <v>207933</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>172</v>
+      <c r="M52" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100051.wav</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>700019</v>
+        <v>100052</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
       </c>
       <c r="G53" s="2">
-        <v>29925</v>
+        <v>291029</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>427</v>
+        <v>19483</v>
       </c>
       <c r="J53" s="2">
-        <v>29788</v>
+        <v>289428</v>
       </c>
       <c r="K53" s="2">
-        <v>29925</v>
+        <v>291029</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>173</v>
+      <c r="M53" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100052.wav</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>700020</v>
+        <v>100053</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>29970</v>
+        <v>209409</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>15</v>
+        <v>16594</v>
       </c>
       <c r="J54" s="2">
-        <v>29774</v>
+        <v>205763</v>
       </c>
       <c r="K54" s="2">
-        <v>29970</v>
+        <v>209409</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>174</v>
+      <c r="M54" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100053.wav</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>800001</v>
+        <v>100054</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>7612</v>
+        <v>212895</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <v>551</v>
+        <v>19043</v>
       </c>
       <c r="J55" s="2">
-        <v>6987</v>
+        <v>209898</v>
       </c>
       <c r="K55" s="2">
-        <v>7612</v>
+        <v>212895</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>175</v>
+      <c r="M55" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100054.wav</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>800002</v>
+        <v>100055</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>10299</v>
+        <v>288022</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>439</v>
+        <v>17919</v>
       </c>
       <c r="J56" s="2">
-        <v>6600</v>
+        <v>281712</v>
       </c>
       <c r="K56" s="2">
-        <v>10299</v>
+        <v>288022</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>176</v>
+      <c r="M56" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100055.wav</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>800003</v>
+        <v>100056</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>11814</v>
+        <v>273265</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>228</v>
+        <v>12976</v>
       </c>
       <c r="J57" s="2">
-        <v>9936</v>
+        <v>266665</v>
       </c>
       <c r="K57" s="2">
-        <v>11814</v>
+        <v>273265</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>177</v>
+      <c r="M57" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100056.wav</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>900001</v>
+        <v>100057</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>7330</v>
+        <v>274305</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>406</v>
+        <v>13932</v>
       </c>
       <c r="J58" s="2">
-        <v>5216</v>
+        <v>269191</v>
       </c>
       <c r="K58" s="2">
-        <v>7330</v>
+        <v>274305</v>
       </c>
       <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>178</v>
+        <v>0</v>
+      </c>
+      <c r="M58" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100057.wav</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>900002</v>
+        <v>100058</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>7912</v>
+        <v>251166</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>767</v>
+        <v>12984</v>
       </c>
       <c r="J59" s="2">
-        <v>3248</v>
+        <v>244491</v>
       </c>
       <c r="K59" s="2">
-        <v>7912</v>
+        <v>251166</v>
       </c>
       <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>179</v>
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100058.wav</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>900003</v>
+        <v>100059</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>5535</v>
+        <v>252237</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>341</v>
+        <v>19401</v>
       </c>
       <c r="J60" s="2">
-        <v>3388</v>
+        <v>245142</v>
       </c>
       <c r="K60" s="2">
-        <v>5535</v>
+        <v>252237</v>
       </c>
       <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100059.wav</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>900004</v>
+        <v>100060</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
       </c>
       <c r="G61" s="2">
-        <v>9246</v>
+        <v>277044</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <v>628</v>
+        <v>14805</v>
       </c>
       <c r="J61" s="2">
-        <v>4152</v>
+        <v>268976</v>
       </c>
       <c r="K61" s="2">
-        <v>9246</v>
+        <v>277044</v>
       </c>
       <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>181</v>
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100060.wav</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>900005</v>
+        <v>100061</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>10054</v>
+        <v>226818</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>493</v>
+        <v>16908</v>
       </c>
       <c r="J62" s="2">
-        <v>8838</v>
+        <v>220235</v>
       </c>
       <c r="K62" s="2">
-        <v>10054</v>
+        <v>226818</v>
       </c>
       <c r="L62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100061.wav</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
+        <v>100062</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>261912</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>14556</v>
+      </c>
+      <c r="J63" s="2">
+        <v>254253</v>
+      </c>
+      <c r="K63" s="2">
+        <v>261912</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100062.wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>100063</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>178866</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>11375</v>
+      </c>
+      <c r="J64" s="2">
+        <v>174034</v>
+      </c>
+      <c r="K64" s="2">
+        <v>178866</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100063.wav</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>100064</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>174351</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>9845</v>
+      </c>
+      <c r="J65" s="2">
+        <v>167752</v>
+      </c>
+      <c r="K65" s="2">
+        <v>174351</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100064.wav</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>100065</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>205712</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>11562</v>
+      </c>
+      <c r="J66" s="2">
+        <v>202448</v>
+      </c>
+      <c r="K66" s="2">
+        <v>205712</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100065.wav</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>100066</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>254344</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>7709</v>
+      </c>
+      <c r="J67" s="2">
+        <v>243764</v>
+      </c>
+      <c r="K67" s="2">
+        <v>254344</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100066.wav</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>100067</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>201120</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>13794</v>
+      </c>
+      <c r="J68" s="2">
+        <v>199647</v>
+      </c>
+      <c r="K68" s="2">
+        <v>201120</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100067.wav</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>100068</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>193028</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>7825</v>
+      </c>
+      <c r="J69" s="2">
+        <v>192321</v>
+      </c>
+      <c r="K69" s="2">
+        <v>193028</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100068.wav</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>100069</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>230016</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>66</v>
+      </c>
+      <c r="J70" s="2">
+        <v>225329</v>
+      </c>
+      <c r="K70" s="2">
+        <v>230016</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100069.wav</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>100070</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>230464</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>504</v>
+      </c>
+      <c r="J71" s="2">
+        <v>224731</v>
+      </c>
+      <c r="K71" s="2">
+        <v>230464</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100070.wav</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>100071</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>232953</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2822</v>
+      </c>
+      <c r="J72" s="2">
+        <v>232059</v>
+      </c>
+      <c r="K72" s="2">
+        <v>232953</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100071.wav</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>100072</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>221382</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>8500</v>
+      </c>
+      <c r="J73" s="2">
+        <v>216559</v>
+      </c>
+      <c r="K73" s="2">
+        <v>221382</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100072.wav</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>100073</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>181639</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>4351</v>
+      </c>
+      <c r="J74" s="2">
+        <v>177934</v>
+      </c>
+      <c r="K74" s="2">
+        <v>181639</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100073.wav</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>100074</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>269777</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1994</v>
+      </c>
+      <c r="J75" s="2">
+        <v>267825</v>
+      </c>
+      <c r="K75" s="2">
+        <v>269777</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100074.wav</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>100075</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>242788</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>15945</v>
+      </c>
+      <c r="J76" s="2">
+        <v>236929</v>
+      </c>
+      <c r="K76" s="2">
+        <v>242788</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100075.wav</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>100076</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>186282</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>25311</v>
+      </c>
+      <c r="J77" s="2">
+        <v>183124</v>
+      </c>
+      <c r="K77" s="2">
+        <v>186282</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100076.wav</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>100077</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>198893</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>7448</v>
+      </c>
+      <c r="J78" s="2">
+        <v>197141</v>
+      </c>
+      <c r="K78" s="2">
+        <v>198893</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100077.wav</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>100078</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>218079</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>5287</v>
+      </c>
+      <c r="J79" s="2">
+        <v>217191</v>
+      </c>
+      <c r="K79" s="2">
+        <v>218079</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100078.wav</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>100079</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>197687</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>25272</v>
+      </c>
+      <c r="J80" s="2">
+        <v>189944</v>
+      </c>
+      <c r="K80" s="2">
+        <v>197687</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100079.wav</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>100080</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>200408</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>9330</v>
+      </c>
+      <c r="J81" s="2">
+        <v>199822</v>
+      </c>
+      <c r="K81" s="2">
+        <v>200408</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100080.wav</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>100081</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>189209</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>6595</v>
+      </c>
+      <c r="J82" s="2">
+        <v>184387</v>
+      </c>
+      <c r="K82" s="2">
+        <v>189209</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100081.wav</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>100082</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>246477</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>9438</v>
+      </c>
+      <c r="J83" s="2">
+        <v>239751</v>
+      </c>
+      <c r="K83" s="2">
+        <v>246477</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100082.wav</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>100083</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>188669</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>294</v>
+      </c>
+      <c r="J84" s="2">
+        <v>181347</v>
+      </c>
+      <c r="K84" s="2">
+        <v>188669</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100083.wav</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>100084</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>287611</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>55</v>
+      </c>
+      <c r="J85" s="2">
+        <v>281932</v>
+      </c>
+      <c r="K85" s="2">
+        <v>287611</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100084.wav</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>100085</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>163577</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>9484</v>
+      </c>
+      <c r="J86" s="2">
+        <v>161448</v>
+      </c>
+      <c r="K86" s="2">
+        <v>163577</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100085.wav</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>100086</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>255350</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>5711</v>
+      </c>
+      <c r="J87" s="2">
+        <v>246484</v>
+      </c>
+      <c r="K87" s="2">
+        <v>255350</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100086.wav</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>100087</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>269717</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>11893</v>
+      </c>
+      <c r="J88" s="2">
+        <v>261290</v>
+      </c>
+      <c r="K88" s="2">
+        <v>269717</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100087.wav</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>100088</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>167195</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>13596</v>
+      </c>
+      <c r="J89" s="2">
+        <v>160715</v>
+      </c>
+      <c r="K89" s="2">
+        <v>167195</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100088.wav</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>100089</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>271653</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>42986</v>
+      </c>
+      <c r="J90" s="2">
+        <v>259724</v>
+      </c>
+      <c r="K90" s="2">
+        <v>271653</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100089.wav</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>100090</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>224346</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>8870</v>
+      </c>
+      <c r="J91" s="2">
+        <v>218614</v>
+      </c>
+      <c r="K91" s="2">
+        <v>224346</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100090.wav</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>100091</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>226726</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>16697</v>
+      </c>
+      <c r="J92" s="2">
+        <v>219214</v>
+      </c>
+      <c r="K92" s="2">
+        <v>226726</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100091.wav</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>100092</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>200847</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>7379</v>
+      </c>
+      <c r="J93" s="2">
+        <v>195633</v>
+      </c>
+      <c r="K93" s="2">
+        <v>200847</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100092.wav</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>100093</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>237405</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>14628</v>
+      </c>
+      <c r="J94" s="2">
+        <v>232948</v>
+      </c>
+      <c r="K94" s="2">
+        <v>237405</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100093.wav</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>100094</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>210894</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>9098</v>
+      </c>
+      <c r="J95" s="2">
+        <v>209246</v>
+      </c>
+      <c r="K95" s="2">
+        <v>210894</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100094.wav</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>100095</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>281207</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>35891</v>
+      </c>
+      <c r="J96" s="2">
+        <v>268723</v>
+      </c>
+      <c r="K96" s="2">
+        <v>281207</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100095.wav</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>100096</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>198896</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>16984</v>
+      </c>
+      <c r="J97" s="2">
+        <v>192010</v>
+      </c>
+      <c r="K97" s="2">
+        <v>198896</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100096.wav</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>100097</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>200698</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>7396</v>
+      </c>
+      <c r="J98" s="2">
+        <v>200096</v>
+      </c>
+      <c r="K98" s="2">
+        <v>200698</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100097.wav</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>100098</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2">
+        <v>256064</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>552</v>
+      </c>
+      <c r="J99" s="2">
+        <v>251544</v>
+      </c>
+      <c r="K99" s="2">
+        <v>256064</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100098.wav</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>100099</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2">
+        <v>157391</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>19566</v>
+      </c>
+      <c r="J100" s="2">
+        <v>155811</v>
+      </c>
+      <c r="K100" s="2">
+        <v>157391</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100099.wav</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>241348</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>10805</v>
+      </c>
+      <c r="J101" s="2">
+        <v>238535</v>
+      </c>
+      <c r="K101" s="2">
+        <v>241348</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100100.wav</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>189867</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>71</v>
+      </c>
+      <c r="J102" s="2">
+        <v>188870</v>
+      </c>
+      <c r="K102" s="2">
+        <v>189867</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100101.wav</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>100102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>187252</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <v>9872</v>
+      </c>
+      <c r="J103" s="2">
+        <v>185810</v>
+      </c>
+      <c r="K103" s="2">
+        <v>187252</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100102.wav</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>100103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>196958</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>6887</v>
+      </c>
+      <c r="J104" s="2">
+        <v>195989</v>
+      </c>
+      <c r="K104" s="2">
+        <v>196958</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100103.wav</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>100104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>291222</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>30915</v>
+      </c>
+      <c r="J105" s="2">
+        <v>282698</v>
+      </c>
+      <c r="K105" s="2">
+        <v>291222</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100104.wav</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>100105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>293532</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <v>14120</v>
+      </c>
+      <c r="J106" s="2">
+        <v>290013</v>
+      </c>
+      <c r="K106" s="2">
+        <v>293532</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100105.wav</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>100106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2">
+        <v>199891</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <v>110</v>
+      </c>
+      <c r="J107" s="2">
+        <v>196178</v>
+      </c>
+      <c r="K107" s="2">
+        <v>199891</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/100106.wav</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>700001</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>32511</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I108" s="2">
+        <v>494</v>
+      </c>
+      <c r="J108" s="2">
+        <v>29358</v>
+      </c>
+      <c r="K108" s="2">
+        <v>32511</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700001.wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>700002</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>32511</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>494</v>
+      </c>
+      <c r="J109" s="2">
+        <v>29358</v>
+      </c>
+      <c r="K109" s="2">
+        <v>32511</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700002.wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>700003</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>32511</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>494</v>
+      </c>
+      <c r="J110" s="2">
+        <v>29358</v>
+      </c>
+      <c r="K110" s="2">
+        <v>32511</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700003.wav</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>700004</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>32511</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>494</v>
+      </c>
+      <c r="J111" s="2">
+        <v>29358</v>
+      </c>
+      <c r="K111" s="2">
+        <v>32511</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700004.wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>700005</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>32511</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>494</v>
+      </c>
+      <c r="J112" s="2">
+        <v>29358</v>
+      </c>
+      <c r="K112" s="2">
+        <v>32511</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700005.wav</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>700006</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2">
+        <v>33081</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>494</v>
+      </c>
+      <c r="J113" s="2">
+        <v>29951</v>
+      </c>
+      <c r="K113" s="2">
+        <v>33081</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700006.wav</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>700011</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>33109</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>18</v>
+      </c>
+      <c r="J114" s="2">
+        <v>33012</v>
+      </c>
+      <c r="K114" s="2">
+        <v>33019</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700011.wav</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>700012</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2">
+        <v>30486</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>200</v>
+      </c>
+      <c r="J115" s="2">
+        <v>29650</v>
+      </c>
+      <c r="K115" s="2">
+        <v>30486</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700012.wav</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>700013</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>23547</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>45</v>
+      </c>
+      <c r="J116" s="2">
+        <v>23205</v>
+      </c>
+      <c r="K116" s="2">
+        <v>23547</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700013.wav</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>700014</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2">
+        <v>30934</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>4</v>
+      </c>
+      <c r="J117" s="2">
+        <v>30511</v>
+      </c>
+      <c r="K117" s="2">
+        <v>30934</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700014.wav</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>700015</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2">
+        <v>28433</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>35</v>
+      </c>
+      <c r="J118" s="2">
+        <v>28189</v>
+      </c>
+      <c r="K118" s="2">
+        <v>28433</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700015.wav</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>700016</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>30017</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <v>44</v>
+      </c>
+      <c r="J119" s="2">
+        <v>29835</v>
+      </c>
+      <c r="K119" s="2">
+        <v>30017</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700016.wav</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>700017</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
+      <c r="G120" s="2">
+        <v>29937</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1285</v>
+      </c>
+      <c r="J120" s="2">
+        <v>29805</v>
+      </c>
+      <c r="K120" s="2">
+        <v>29937</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700017.wav</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>700018</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>30022</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>554</v>
+      </c>
+      <c r="J121" s="2">
+        <v>29805</v>
+      </c>
+      <c r="K121" s="2">
+        <v>30022</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700018.wav</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>700019</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>29925</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2">
+        <v>427</v>
+      </c>
+      <c r="J122" s="2">
+        <v>29788</v>
+      </c>
+      <c r="K122" s="2">
+        <v>29925</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700019.wav</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>700020</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2">
+        <v>29970</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2">
+        <v>15</v>
+      </c>
+      <c r="J123" s="2">
+        <v>29774</v>
+      </c>
+      <c r="K123" s="2">
+        <v>29970</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/700020.wav</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>800001</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>7612</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2">
+        <v>551</v>
+      </c>
+      <c r="J124" s="2">
+        <v>6987</v>
+      </c>
+      <c r="K124" s="2">
+        <v>7612</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/800001.wav</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>800002</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>10299</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2">
+        <v>439</v>
+      </c>
+      <c r="J125" s="2">
+        <v>6600</v>
+      </c>
+      <c r="K125" s="2">
+        <v>10299</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/800002.wav</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>800003</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>11814</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>228</v>
+      </c>
+      <c r="J126" s="2">
+        <v>9936</v>
+      </c>
+      <c r="K126" s="2">
+        <v>11814</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/800003.wav</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>900001</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>7330</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>406</v>
+      </c>
+      <c r="J127" s="2">
+        <v>5216</v>
+      </c>
+      <c r="K127" s="2">
+        <v>7330</v>
+      </c>
+      <c r="L127" s="2">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900001.wav</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>900002</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>7912</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>767</v>
+      </c>
+      <c r="J128" s="2">
+        <v>3248</v>
+      </c>
+      <c r="K128" s="2">
+        <v>7912</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1</v>
+      </c>
+      <c r="M128" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900002.wav</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>900003</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>5535</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2">
+        <v>341</v>
+      </c>
+      <c r="J129" s="2">
+        <v>3388</v>
+      </c>
+      <c r="K129" s="2">
+        <v>5535</v>
+      </c>
+      <c r="L129" s="2">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900003.wav</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>900004</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>9246</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>628</v>
+      </c>
+      <c r="J130" s="2">
+        <v>4152</v>
+      </c>
+      <c r="K130" s="2">
+        <v>9246</v>
+      </c>
+      <c r="L130" s="2">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900004.wav</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>900005</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>10054</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>493</v>
+      </c>
+      <c r="J131" s="2">
+        <v>8838</v>
+      </c>
+      <c r="K131" s="2">
+        <v>10054</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900005.wav</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>900006</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>4674</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2">
+        <v>59</v>
+      </c>
+      <c r="J132" s="2">
+        <v>2780</v>
+      </c>
+      <c r="K132" s="2">
+        <v>4674</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1</v>
+      </c>
+      <c r="M132" s="4" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900006.wav</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
         <v>900101</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
         <v>16985</v>
       </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
         <v>121</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J133" s="2">
         <v>11525</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K133" s="2">
         <v>16985</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L133" s="2">
         <v>1</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>183</v>
+      <c r="M133" s="1" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900101.wav</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>900102</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>16697</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>424</v>
+      </c>
+      <c r="J134" s="2">
+        <v>16599</v>
+      </c>
+      <c r="K134" s="2">
+        <v>16697</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1</v>
+      </c>
+      <c r="M134" s="4" t="str">
+        <f>_xlfn.CONCAT("./audio/", Table1[[#This Row],[cut]],".wav")</f>
+        <v>./audio/900102.wav</v>
       </c>
     </row>
   </sheetData>
